--- a/data/trans_orig/P17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AE81A4-9814-4FEC-87C3-46E5043CA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5682BB-9CA3-4D82-92CA-22AA1D3A7D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67B72E52-4F6A-44CE-BDAF-7CA2216C6E0B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F97983CC-BE1E-463F-BA2F-C353110FA89D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>32,51%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>67,49%</t>
   </si>
   <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,166 +140,166 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,373 +311,385 @@
     <t>35,42%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>24,34%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>75,66%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>19,56%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>22,07%</t>
   </si>
   <si>
-    <t>26,42%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>29,31%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>70,69%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>32,73%</t>
@@ -686,43 +698,37 @@
     <t>31,12%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>65,66%</t>
+    <t>65,68%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
@@ -731,112 +737,118 @@
     <t>26,9%</t>
   </si>
   <si>
-    <t>23,31%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>31,91%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>76,69%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
   </si>
   <si>
     <t>68,09%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>23,1%</t>
@@ -845,31 +857,31 @@
     <t>20,35%</t>
   </si>
   <si>
-    <t>26,12%</t>
+    <t>26,03%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>73,88%</t>
+    <t>73,97%</t>
   </si>
   <si>
     <t>79,65%</t>
@@ -878,10 +890,10 @@
     <t>78,2%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>19,81%</t>
@@ -890,46 +902,52 @@
     <t>18,27%</t>
   </si>
   <si>
+    <t>21,21%</t>
+  </si>
+  <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
+    <t>78,79%</t>
+  </si>
+  <si>
     <t>81,73%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376D78A-9C1B-49B2-9BD7-EF5B97DF0FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E84DE-5824-4680-B19E-3A66C047EE01}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,7 +1686,7 @@
         <v>1397</v>
       </c>
       <c r="D8" s="7">
-        <v>1439253</v>
+        <v>1439252</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1737,7 @@
         <v>1647</v>
       </c>
       <c r="D9" s="7">
-        <v>1691678</v>
+        <v>1691677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606AB6D0-1C51-4B19-A93D-D9F22EE92981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9282DE0-6315-438A-82EE-8B1470353567}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2404,10 +2422,10 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2440,13 @@
         <v>1597280</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1166</v>
@@ -2437,13 +2455,13 @@
         <v>1255279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2681</v>
@@ -2452,13 +2470,13 @@
         <v>2852559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2544,13 @@
         <v>75943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -2541,13 +2559,13 @@
         <v>109701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -2556,13 +2574,13 @@
         <v>185644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2595,13 @@
         <v>401394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -2592,13 +2610,13 @@
         <v>347979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>686</v>
@@ -2607,13 +2625,13 @@
         <v>749374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,28 +2699,28 @@
         <v>779118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1075</v>
       </c>
       <c r="I13" s="7">
-        <v>1154515</v>
+        <v>1154514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1791</v>
@@ -2711,13 +2729,13 @@
         <v>1933633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2750,13 @@
         <v>2626748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2209</v>
@@ -2747,13 +2765,13 @@
         <v>2388644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4683</v>
@@ -2762,13 +2780,13 @@
         <v>5015392</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2813,7 @@
         <v>3284</v>
       </c>
       <c r="I15" s="7">
-        <v>3543159</v>
+        <v>3543158</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B7F3E6-B75C-460B-8996-5797CE1AF582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DB214A-D847-4FB6-BEC2-260C8172231E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2985,13 @@
         <v>261065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>376</v>
@@ -2982,13 +3000,13 @@
         <v>421232</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>641</v>
@@ -2997,13 +3015,13 @@
         <v>682298</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>493282</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>516</v>
@@ -3033,13 +3051,13 @@
         <v>573428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1013</v>
@@ -3048,13 +3066,13 @@
         <v>1066709</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3140,13 @@
         <v>468581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>563</v>
@@ -3137,13 +3155,13 @@
         <v>596181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1000</v>
@@ -3152,13 +3170,13 @@
         <v>1064761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3191,13 @@
         <v>1607804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1345</v>
@@ -3188,13 +3206,13 @@
         <v>1392119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2860</v>
@@ -3203,13 +3221,13 @@
         <v>2999924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3295,13 @@
         <v>120705</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3292,13 +3310,13 @@
         <v>138623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -3307,13 +3325,13 @@
         <v>259328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3346,13 @@
         <v>426181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>396</v>
@@ -3343,13 +3361,13 @@
         <v>410517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>788</v>
@@ -3358,13 +3376,13 @@
         <v>836698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3450,13 @@
         <v>850351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1069</v>
@@ -3447,13 +3465,13 @@
         <v>1156036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1880</v>
@@ -3462,13 +3480,13 @@
         <v>2006387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3501,13 @@
         <v>2527267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>2257</v>
@@ -3498,13 +3516,13 @@
         <v>2376064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>4661</v>
@@ -3513,13 +3531,13 @@
         <v>4903331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4B5956-5AEB-4BA9-9AD0-54DCE9D0C595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AF0DCA-8192-459C-A70D-534A2B6862D1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3736,13 @@
         <v>145510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>441</v>
@@ -3733,13 +3751,13 @@
         <v>266321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
@@ -3748,13 +3766,13 @@
         <v>411831</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3787,13 @@
         <v>395418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>983</v>
@@ -3784,13 +3802,13 @@
         <v>568238</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1486</v>
@@ -3799,13 +3817,13 @@
         <v>963656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3891,13 @@
         <v>385631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>666</v>
@@ -3888,13 +3906,13 @@
         <v>487937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1045</v>
@@ -3903,13 +3921,13 @@
         <v>873568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,28 +3942,28 @@
         <v>1775503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2251</v>
       </c>
       <c r="I8" s="7">
-        <v>1759338</v>
+        <v>1759339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3863</v>
@@ -3954,13 +3972,13 @@
         <v>3534841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +4005,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247275</v>
+        <v>2247276</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4028,13 +4046,13 @@
         <v>137422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4043,13 +4061,13 @@
         <v>164885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -4058,13 +4076,13 @@
         <v>302307</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4097,13 @@
         <v>535617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>766</v>
@@ -4094,13 +4112,13 @@
         <v>549001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1302</v>
@@ -4109,13 +4127,13 @@
         <v>1084619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4201,13 @@
         <v>668563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>1345</v>
@@ -4198,13 +4216,13 @@
         <v>919143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>2056</v>
@@ -4213,13 +4231,13 @@
         <v>1587706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,28 +4252,28 @@
         <v>2706538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4000</v>
       </c>
       <c r="I14" s="7">
-        <v>2876578</v>
+        <v>2876577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>6651</v>
@@ -4264,13 +4282,13 @@
         <v>5583116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4315,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3795721</v>
+        <v>3795720</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5682BB-9CA3-4D82-92CA-22AA1D3A7D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F59A315-E520-40D6-BC53-E186E3809990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F97983CC-BE1E-463F-BA2F-C353110FA89D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{281D55CA-EA3E-4A08-87B8-8CF0BA1E7897}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>32,51%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>67,49%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>79,97%</t>
   </si>
   <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>13,02%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,424 +311,412 @@
     <t>35,42%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
     <t>36,7%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
   </si>
   <si>
     <t>63,3%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
@@ -1359,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E84DE-5824-4680-B19E-3A66C047EE01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CEE920-7A27-43B4-BF63-53D0867065C2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1674,7 @@
         <v>1397</v>
       </c>
       <c r="D8" s="7">
-        <v>1439252</v>
+        <v>1439253</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1725,7 @@
         <v>1647</v>
       </c>
       <c r="D9" s="7">
-        <v>1691677</v>
+        <v>1691678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9282DE0-6315-438A-82EE-8B1470353567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A16043-7A75-4086-B20D-F815AB06C5B3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,7 +2413,7 @@
         <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2428,13 @@
         <v>1597280</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1166</v>
@@ -2455,13 +2443,13 @@
         <v>1255279</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2681</v>
@@ -2470,13 +2458,13 @@
         <v>2852559</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2532,13 @@
         <v>75943</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -2559,13 +2547,13 @@
         <v>109701</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -2574,13 +2562,13 @@
         <v>185644</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,28 +2583,28 @@
         <v>401394</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>347979</v>
+        <v>347980</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>686</v>
@@ -2625,13 +2613,13 @@
         <v>749374</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2646,7 @@
         <v>411</v>
       </c>
       <c r="I12" s="7">
-        <v>457680</v>
+        <v>457681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2699,28 +2687,28 @@
         <v>779118</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1075</v>
       </c>
       <c r="I13" s="7">
-        <v>1154514</v>
+        <v>1154515</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1791</v>
@@ -2729,13 +2717,13 @@
         <v>1933633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2738,13 @@
         <v>2626748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>2209</v>
@@ -2765,13 +2753,13 @@
         <v>2388644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>4683</v>
@@ -2780,13 +2768,13 @@
         <v>5015392</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2801,7 @@
         <v>3284</v>
       </c>
       <c r="I15" s="7">
-        <v>3543158</v>
+        <v>3543159</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DB214A-D847-4FB6-BEC2-260C8172231E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE77B80-74B2-4309-979D-ED6D26083662}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2973,13 @@
         <v>261065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>376</v>
@@ -3000,13 +2988,13 @@
         <v>421232</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>641</v>
@@ -3015,13 +3003,13 @@
         <v>682298</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3024,13 @@
         <v>493282</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>516</v>
@@ -3051,13 +3039,13 @@
         <v>573428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1013</v>
@@ -3066,13 +3054,13 @@
         <v>1066709</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3128,13 @@
         <v>468581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>563</v>
@@ -3155,13 +3143,13 @@
         <v>596181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>1000</v>
@@ -3170,13 +3158,13 @@
         <v>1064761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3179,13 @@
         <v>1607804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1345</v>
@@ -3206,13 +3194,13 @@
         <v>1392119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>2860</v>
@@ -3221,13 +3209,13 @@
         <v>2999924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3283,13 @@
         <v>120705</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3310,13 +3298,13 @@
         <v>138623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -3325,13 +3313,13 @@
         <v>259328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3334,13 @@
         <v>426181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>396</v>
@@ -3361,13 +3349,13 @@
         <v>410517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>788</v>
@@ -3376,13 +3364,13 @@
         <v>836698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3438,13 @@
         <v>850351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>1069</v>
@@ -3465,13 +3453,13 @@
         <v>1156036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1880</v>
@@ -3480,13 +3468,13 @@
         <v>2006387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3489,13 @@
         <v>2527267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>2257</v>
@@ -3516,13 +3504,13 @@
         <v>2376064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>4661</v>
@@ -3531,13 +3519,13 @@
         <v>4903331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AF0DCA-8192-459C-A70D-534A2B6862D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126264B-2293-48A8-85CB-374D1BC5C2B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3724,13 @@
         <v>145510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>441</v>
@@ -3751,13 +3739,13 @@
         <v>266321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
@@ -3766,13 +3754,13 @@
         <v>411831</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3775,13 @@
         <v>395418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>983</v>
@@ -3802,13 +3790,13 @@
         <v>568238</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1486</v>
@@ -3817,13 +3805,13 @@
         <v>963656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3879,13 @@
         <v>385631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>666</v>
@@ -3906,13 +3894,13 @@
         <v>487937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>1045</v>
@@ -3921,13 +3909,13 @@
         <v>873568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3930,13 @@
         <v>1775503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2251</v>
@@ -3957,13 +3945,13 @@
         <v>1759339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3863</v>
@@ -3972,13 +3960,13 @@
         <v>3534841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4034,13 @@
         <v>137422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4061,13 +4049,13 @@
         <v>164885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -4076,13 +4064,13 @@
         <v>302307</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4085,13 @@
         <v>535617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>766</v>
@@ -4112,13 +4100,13 @@
         <v>549001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1302</v>
@@ -4127,13 +4115,13 @@
         <v>1084619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4189,13 @@
         <v>668563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1345</v>
@@ -4216,13 +4204,13 @@
         <v>919143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2056</v>
@@ -4231,13 +4219,13 @@
         <v>1587706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4240,13 @@
         <v>2706538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4000</v>
@@ -4267,13 +4255,13 @@
         <v>2876577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>6651</v>
@@ -4282,13 +4270,13 @@
         <v>5583116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F59A315-E520-40D6-BC53-E186E3809990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3798D7-2350-4E3B-8D1E-7A65EE0EBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{281D55CA-EA3E-4A08-87B8-8CF0BA1E7897}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{564DF56A-5A23-47DA-82A7-E109DDA722D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>67,49%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>79,97%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>13,02%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,61 +311,61 @@
     <t>35,42%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>16,6%</t>
   </si>
   <si>
     <t>20,31%</t>
@@ -374,16 +374,16 @@
     <t>28,26%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>21,63%</t>
+    <t>24,34%</t>
   </si>
   <si>
     <t>81,66%</t>
@@ -392,124 +392,124 @@
     <t>79,69%</t>
   </si>
   <si>
-    <t>83,32%</t>
+    <t>83,4%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>78,37%</t>
+    <t>75,66%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>76,03%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>24,52%</t>
   </si>
   <si>
     <t>32,58%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>27,83%</t>
   </si>
   <si>
-    <t>28,9%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>75,48%</t>
   </si>
   <si>
     <t>67,42%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>72,17%</t>
   </si>
   <si>
-    <t>71,1%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
@@ -518,205 +518,211 @@
     <t>34,61%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>42,35%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
   </si>
   <si>
     <t>57,65%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>22,07%</t>
   </si>
   <si>
-    <t>18,36%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>81,64%</t>
+    <t>73,58%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>26,62%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>73,38%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
@@ -725,118 +731,112 @@
     <t>26,9%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>23,31%</t>
   </si>
   <si>
     <t>31,91%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>76,69%</t>
   </si>
   <si>
     <t>68,09%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>23,1%</t>
@@ -845,31 +845,31 @@
     <t>20,35%</t>
   </si>
   <si>
-    <t>26,03%</t>
+    <t>26,12%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>73,97%</t>
+    <t>73,88%</t>
   </si>
   <si>
     <t>79,65%</t>
@@ -878,10 +878,10 @@
     <t>78,2%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>19,81%</t>
@@ -890,52 +890,46 @@
     <t>18,27%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
     <t>81,73%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CEE920-7A27-43B4-BF63-53D0867065C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD95FD1-3EBF-4BCA-9C56-0EBF812188C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A16043-7A75-4086-B20D-F815AB06C5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6120AA8D-C5B3-481A-B918-A9A176B32BE8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,10 +2404,10 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,10 +2455,10 @@
         <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,7 +2589,7 @@
         <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>347980</v>
+        <v>347979</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2646,7 +2640,7 @@
         <v>411</v>
       </c>
       <c r="I12" s="7">
-        <v>457681</v>
+        <v>457680</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2690,10 +2684,10 @@
         <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1075</v>
@@ -2702,13 +2696,13 @@
         <v>1154515</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1791</v>
@@ -2717,10 +2711,10 @@
         <v>1933633</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>148</v>
@@ -2744,7 +2738,7 @@
         <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>2209</v>
@@ -2753,13 +2747,13 @@
         <v>2388644</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>4683</v>
@@ -2768,13 +2762,13 @@
         <v>5015392</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE77B80-74B2-4309-979D-ED6D26083662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85227A-0012-4A29-B1E9-3E161E9A24D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3286,10 +3280,10 @@
         <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3337,10 +3331,10 @@
         <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>396</v>
@@ -3441,10 +3435,10 @@
         <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>1069</v>
@@ -3453,13 +3447,13 @@
         <v>1156036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>1880</v>
@@ -3468,13 +3462,13 @@
         <v>2006387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3483,13 @@
         <v>2527267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2257</v>
@@ -3504,13 +3498,13 @@
         <v>2376064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>4661</v>
@@ -3519,13 +3513,13 @@
         <v>4903331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126264B-2293-48A8-85CB-374D1BC5C2B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A228AF-2C03-498D-B1EB-D6812535AC39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3718,13 @@
         <v>145510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>441</v>
@@ -3739,13 +3733,13 @@
         <v>266321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
@@ -3754,13 +3748,13 @@
         <v>411831</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,10 +3769,10 @@
         <v>395418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>238</v>
@@ -3942,7 +3936,7 @@
         <v>2251</v>
       </c>
       <c r="I8" s="7">
-        <v>1759339</v>
+        <v>1759338</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>257</v>
@@ -3993,7 +3987,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247276</v>
+        <v>2247275</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4195,7 +4189,7 @@
         <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>1345</v>
@@ -4204,13 +4198,13 @@
         <v>919143</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2056</v>
@@ -4219,13 +4213,13 @@
         <v>1587706</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,28 +4234,28 @@
         <v>2706538</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4000</v>
       </c>
       <c r="I14" s="7">
-        <v>2876577</v>
+        <v>2876578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>6651</v>
@@ -4270,13 +4264,13 @@
         <v>5583116</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4297,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3795720</v>
+        <v>3795721</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3798D7-2350-4E3B-8D1E-7A65EE0EBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E2BCD9-C877-40E8-BBA5-6E9CD4C4533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{564DF56A-5A23-47DA-82A7-E109DDA722D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{40E95337-E9D8-4C01-874C-70226928DBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -728,208 +728,220 @@
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD95FD1-3EBF-4BCA-9C56-0EBF812188C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FAC066-4289-4B4F-87ED-1505EF7F78DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1504,7 @@
         <v>864</v>
       </c>
       <c r="N4" s="7">
-        <v>863179</v>
+        <v>863178</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1594,7 +1606,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2345902</v>
+        <v>2345901</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1668,7 +1680,7 @@
         <v>1397</v>
       </c>
       <c r="D8" s="7">
-        <v>1439253</v>
+        <v>1439252</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1731,7 @@
         <v>1647</v>
       </c>
       <c r="D9" s="7">
-        <v>1691678</v>
+        <v>1691677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6120AA8D-C5B3-481A-B918-A9A176B32BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227A4DF-D8AA-4C7B-84EF-D9136FBBB3E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2243,7 +2255,7 @@
         <v>835</v>
       </c>
       <c r="N4" s="7">
-        <v>894802</v>
+        <v>894801</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2345,7 +2357,7 @@
         <v>2151</v>
       </c>
       <c r="N6" s="7">
-        <v>2308262</v>
+        <v>2308261</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2589,7 +2601,7 @@
         <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>347979</v>
+        <v>347980</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2640,7 +2652,7 @@
         <v>411</v>
       </c>
       <c r="I12" s="7">
-        <v>457680</v>
+        <v>457681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85227A-0012-4A29-B1E9-3E161E9A24D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0014D3-3611-487C-9ED3-961E8F116273}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3367,7 @@
         <v>788</v>
       </c>
       <c r="N11" s="7">
-        <v>836698</v>
+        <v>836699</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>207</v>
@@ -3406,7 +3418,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A228AF-2C03-498D-B1EB-D6812535AC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C86BA3F-149B-41F5-963C-88C671DBD2C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3727,7 @@
         <v>187</v>
       </c>
       <c r="D4" s="7">
-        <v>145510</v>
+        <v>137511</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3724,37 +3736,37 @@
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>441</v>
       </c>
       <c r="I4" s="7">
-        <v>266321</v>
+        <v>237602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
       </c>
       <c r="N4" s="7">
-        <v>411831</v>
+        <v>375114</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,46 +3778,46 @@
         <v>503</v>
       </c>
       <c r="D5" s="7">
-        <v>395418</v>
+        <v>376806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>983</v>
       </c>
       <c r="I5" s="7">
-        <v>568238</v>
+        <v>516518</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1486</v>
       </c>
       <c r="N5" s="7">
-        <v>963656</v>
+        <v>893324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3829,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540928</v>
+        <v>514317</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3844,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>834559</v>
+        <v>754120</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3859,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1375487</v>
+        <v>1268438</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,46 +3882,46 @@
         <v>379</v>
       </c>
       <c r="D7" s="7">
-        <v>385631</v>
+        <v>369658</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>487937</v>
+        <v>502340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>1045</v>
       </c>
       <c r="N7" s="7">
-        <v>873568</v>
+        <v>871998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3933,46 @@
         <v>1612</v>
       </c>
       <c r="D8" s="7">
-        <v>1775503</v>
+        <v>1919852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2251</v>
       </c>
       <c r="I8" s="7">
-        <v>1759338</v>
+        <v>1733347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>3863</v>
       </c>
       <c r="N8" s="7">
-        <v>3534841</v>
+        <v>3653199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3984,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2161134</v>
+        <v>2289510</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3999,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247275</v>
+        <v>2235687</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4014,7 @@
         <v>4908</v>
       </c>
       <c r="N9" s="7">
-        <v>4408409</v>
+        <v>4525197</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4037,46 @@
         <v>145</v>
       </c>
       <c r="D10" s="7">
-        <v>137422</v>
+        <v>133483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
       </c>
       <c r="I10" s="7">
-        <v>164885</v>
+        <v>153456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
       </c>
       <c r="N10" s="7">
-        <v>302307</v>
+        <v>286939</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,46 +4088,46 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>535617</v>
+        <v>513140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>766</v>
       </c>
       <c r="I11" s="7">
-        <v>549001</v>
+        <v>507007</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1302</v>
       </c>
       <c r="N11" s="7">
-        <v>1084619</v>
+        <v>1020147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4139,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4154,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4169,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4192,46 @@
         <v>711</v>
       </c>
       <c r="D13" s="7">
-        <v>668563</v>
+        <v>640653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1345</v>
       </c>
       <c r="I13" s="7">
-        <v>919143</v>
+        <v>893399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>2056</v>
       </c>
       <c r="N13" s="7">
-        <v>1587706</v>
+        <v>1534051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4243,46 @@
         <v>2651</v>
       </c>
       <c r="D14" s="7">
-        <v>2706538</v>
+        <v>2809798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>4000</v>
       </c>
       <c r="I14" s="7">
-        <v>2876578</v>
+        <v>2756871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6651</v>
       </c>
       <c r="N14" s="7">
-        <v>5583116</v>
+        <v>5566670</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4294,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375101</v>
+        <v>3450451</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4309,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3795721</v>
+        <v>3650270</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4324,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7170822</v>
+        <v>7100721</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
